--- a/Задание1/Задача по написанию тест-кейсов.xlsx
+++ b/Задание1/Задача по написанию тест-кейсов.xlsx
@@ -561,10 +561,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -687,14 +688,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2895600" cy="5000625"/>
+    <xdr:ext cx="2790825" cy="5229225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Изображение"/>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -923,12 +924,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.25"/>
+    <col customWidth="1" min="1" max="1" width="37.25"/>
     <col customWidth="1" min="2" max="2" width="48.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="411.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -957,1550 +959,1550 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="13">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="14">
         <v>2.0</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="13">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="14">
         <v>2.0</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="13">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="14">
         <v>2.0</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" ht="65.25" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="13">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="14">
         <v>2.0</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="19" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" ht="47.25" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="13">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="14">
         <v>2.0</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14">
         <v>2.0</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="13">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14">
         <v>3.0</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="13">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="14">
         <v>2.0</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="12">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="13">
         <v>2.0</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="12">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="13">
         <v>3.0</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="19" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="12">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="13">
         <v>2.0</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="12">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="13">
         <v>2.0</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="C35" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="13">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="14">
         <v>2.0</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="13">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="14">
         <v>2.0</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="C39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="13">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="14">
         <v>2.0</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="19"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>2.0</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="C48" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="13">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="14">
         <v>2.0</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="C50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" ht="48.0" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="13">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="14">
         <v>2.0</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="C52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="12">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="13">
         <v>2.0</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E54" s="14" t="s">
+      <c r="C54" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="13">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="14">
         <v>2.0</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="C56" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="13">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="14">
         <v>2.0</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="C58" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
     </row>
     <row r="59">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="13">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="14">
         <v>2.0</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="C60" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="12">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="13">
         <v>2.0</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="12">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="13">
         <v>3.0</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="12">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="13">
         <v>4.0</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="C64" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="13">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="14">
         <v>2.0</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="13">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="14">
         <v>3.0</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
     </row>
     <row r="79">
-      <c r="B79" s="37"/>
+      <c r="B79" s="38"/>
     </row>
     <row r="80">
-      <c r="B80" s="37"/>
+      <c r="B80" s="38"/>
     </row>
     <row r="81">
-      <c r="B81" s="37"/>
+      <c r="B81" s="38"/>
     </row>
     <row r="82">
-      <c r="B82" s="37"/>
+      <c r="B82" s="38"/>
     </row>
     <row r="83">
-      <c r="B83" s="37"/>
+      <c r="B83" s="38"/>
     </row>
     <row r="84">
-      <c r="B84" s="37"/>
+      <c r="B84" s="38"/>
     </row>
     <row r="85">
-      <c r="B85" s="38"/>
+      <c r="B85" s="39"/>
     </row>
     <row r="86">
-      <c r="B86" s="38"/>
+      <c r="B86" s="39"/>
     </row>
     <row r="87">
-      <c r="B87" s="38"/>
+      <c r="B87" s="39"/>
     </row>
     <row r="88">
-      <c r="B88" s="38"/>
+      <c r="B88" s="39"/>
     </row>
     <row r="89">
-      <c r="B89" s="38"/>
+      <c r="B89" s="39"/>
     </row>
     <row r="90">
-      <c r="B90" s="38"/>
+      <c r="B90" s="39"/>
     </row>
     <row r="91">
-      <c r="B91" s="37"/>
+      <c r="B91" s="38"/>
     </row>
     <row r="92">
-      <c r="B92" s="37"/>
+      <c r="B92" s="38"/>
     </row>
     <row r="93">
-      <c r="B93" s="37"/>
+      <c r="B93" s="38"/>
     </row>
     <row r="94">
-      <c r="B94" s="37"/>
+      <c r="B94" s="38"/>
     </row>
     <row r="95">
-      <c r="B95" s="37"/>
+      <c r="B95" s="38"/>
     </row>
     <row r="96">
-      <c r="B96" s="37"/>
+      <c r="B96" s="38"/>
     </row>
     <row r="97">
-      <c r="B97" s="37"/>
+      <c r="B97" s="38"/>
     </row>
     <row r="98">
-      <c r="B98" s="37"/>
+      <c r="B98" s="38"/>
     </row>
     <row r="99">
-      <c r="B99" s="37"/>
+      <c r="B99" s="38"/>
     </row>
     <row r="100">
-      <c r="B100" s="37"/>
+      <c r="B100" s="38"/>
     </row>
     <row r="101">
-      <c r="B101" s="37"/>
+      <c r="B101" s="38"/>
     </row>
     <row r="102">
-      <c r="B102" s="37"/>
+      <c r="B102" s="38"/>
     </row>
     <row r="106">
-      <c r="B106" s="39"/>
+      <c r="B106" s="40"/>
     </row>
     <row r="107">
-      <c r="B107" s="37"/>
+      <c r="B107" s="38"/>
     </row>
     <row r="108">
-      <c r="B108" s="37"/>
+      <c r="B108" s="38"/>
     </row>
     <row r="109">
-      <c r="B109" s="37"/>
+      <c r="B109" s="38"/>
     </row>
     <row r="110">
-      <c r="B110" s="37"/>
+      <c r="B110" s="38"/>
     </row>
     <row r="111">
-      <c r="B111" s="37"/>
+      <c r="B111" s="38"/>
     </row>
     <row r="112">
-      <c r="B112" s="37"/>
+      <c r="B112" s="38"/>
     </row>
     <row r="113">
-      <c r="B113" s="37"/>
+      <c r="B113" s="38"/>
     </row>
     <row r="114">
-      <c r="B114" s="37"/>
+      <c r="B114" s="38"/>
     </row>
     <row r="115">
-      <c r="B115" s="37"/>
+      <c r="B115" s="38"/>
     </row>
     <row r="116">
-      <c r="B116" s="38"/>
+      <c r="B116" s="39"/>
     </row>
     <row r="117">
-      <c r="B117" s="38"/>
+      <c r="B117" s="39"/>
     </row>
     <row r="118">
-      <c r="B118" s="38"/>
+      <c r="B118" s="39"/>
     </row>
     <row r="119">
-      <c r="B119" s="38"/>
+      <c r="B119" s="39"/>
     </row>
     <row r="120">
-      <c r="B120" s="38"/>
+      <c r="B120" s="39"/>
     </row>
     <row r="121">
-      <c r="B121" s="38"/>
+      <c r="B121" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="177">
